--- a/Week2/Control/control.xlsx
+++ b/Week2/Control/control.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AnshulSrivastava/Desktop/DA/Week2/Control/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45B8358-DB2B-D448-9612-FACE0C2348D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F8B4AE-97A6-754F-A698-5C10F5BE5EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{4BBEAF21-928C-6B4D-BEB7-A4EB0E514F1A}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="282">
   <si>
     <t>Date</t>
   </si>
@@ -182,9 +183,6 @@
     <t>DVS</t>
   </si>
   <si>
-    <t>Xceed</t>
-  </si>
-  <si>
     <t>24/18</t>
   </si>
   <si>
@@ -846,6 +844,45 @@
   </si>
   <si>
     <t>11/0</t>
+  </si>
+  <si>
+    <t>22/26</t>
+  </si>
+  <si>
+    <t>20/19</t>
+  </si>
+  <si>
+    <t>XC</t>
+  </si>
+  <si>
+    <t>21/21</t>
+  </si>
+  <si>
+    <t>11/15</t>
+  </si>
+  <si>
+    <t>24/21</t>
+  </si>
+  <si>
+    <t>1/8</t>
+  </si>
+  <si>
+    <t>22/16</t>
+  </si>
+  <si>
+    <t>0:52</t>
+  </si>
+  <si>
+    <t>18/14</t>
+  </si>
+  <si>
+    <t>2/5</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>0:07</t>
   </si>
 </sst>
 </file>
@@ -1229,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF9B6A0-7D96-A046-8321-53E56F8B81DB}">
-  <dimension ref="A1:Q168"/>
+  <dimension ref="A1:Q186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="E168" sqref="A167:E168"/>
+    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186:E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1644,22 +1681,22 @@
         <v>47</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11" t="s">
+        <v>271</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="4" t="s">
+      <c r="I11" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="J11">
         <v>5</v>
@@ -1668,7 +1705,7 @@
         <v>43</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>47</v>
@@ -1682,7 +1719,7 @@
         <v>46</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="D12" t="s">
         <v>47</v>
@@ -1691,16 +1728,16 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
       </c>
       <c r="H12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="J12">
         <v>5</v>
@@ -1709,7 +1746,7 @@
         <v>28</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>47</v>
@@ -1726,7 +1763,7 @@
         <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1738,10 +1775,10 @@
         <v>21</v>
       </c>
       <c r="H13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>56</v>
       </c>
       <c r="J13">
         <v>4</v>
@@ -1750,10 +1787,10 @@
         <v>43</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
@@ -1764,7 +1801,7 @@
         <v>46</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="D14" t="s">
         <v>47</v>
@@ -1779,19 +1816,19 @@
         <v>16</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="J14">
-        <v>3</v>
-      </c>
-      <c r="K14" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>47</v>
@@ -1808,22 +1845,22 @@
         <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="E15">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>48</v>
+        <v>271</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
       </c>
       <c r="H15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="J15">
         <v>5</v>
@@ -1846,7 +1883,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>35</v>
@@ -1861,25 +1898,25 @@
         <v>16</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="1">
-        <v>3</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>35</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
@@ -1893,13 +1930,13 @@
         <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1">
         <v>2</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>21</v>
@@ -1912,10 +1949,10 @@
         <v>29</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N17" s="1"/>
     </row>
@@ -1927,7 +1964,7 @@
         <v>13</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>35</v>
@@ -1942,19 +1979,19 @@
         <v>16</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="1">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" s="1">
-        <v>3</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>35</v>
@@ -1972,22 +2009,22 @@
         <v>35</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J19" s="1">
         <v>3</v>
@@ -1996,10 +2033,10 @@
         <v>28</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N19" s="1"/>
     </row>
@@ -2011,7 +2048,7 @@
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>35</v>
@@ -2020,16 +2057,16 @@
         <v>5</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J20" s="1">
         <v>4</v>
@@ -2041,7 +2078,7 @@
         <v>44</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N20" s="1"/>
       <c r="Q20" s="6"/>
@@ -2057,7 +2094,7 @@
         <v>35</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E21" s="1">
         <v>6</v>
@@ -2076,10 +2113,10 @@
         <v>29</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N21" s="1"/>
     </row>
@@ -2106,10 +2143,10 @@
         <v>21</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J22" s="1">
         <v>3</v>
@@ -2118,13 +2155,13 @@
         <v>28</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>15</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
@@ -2150,10 +2187,10 @@
         <v>21</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J23" s="1">
         <v>3</v>
@@ -2162,7 +2199,7 @@
         <v>28</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>15</v>
@@ -2192,10 +2229,10 @@
         <v>16</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J24" s="1">
         <v>3</v>
@@ -2204,7 +2241,7 @@
         <v>28</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>15</v>
@@ -2241,7 +2278,7 @@
         <v>29</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>15</v>
@@ -2259,7 +2296,7 @@
         <v>34</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" s="1">
         <v>1</v>
@@ -2271,10 +2308,10 @@
         <v>21</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J26" s="1">
         <v>3</v>
@@ -2286,7 +2323,7 @@
         <v>25</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N26" s="1"/>
     </row>
@@ -2298,7 +2335,7 @@
         <v>46</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>34</v>
@@ -2307,16 +2344,16 @@
         <v>2</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J27" s="1">
         <v>5</v>
@@ -2328,7 +2365,7 @@
         <v>32</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N27" s="1"/>
     </row>
@@ -2343,7 +2380,7 @@
         <v>34</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E28" s="1">
         <v>3</v>
@@ -2355,10 +2392,10 @@
         <v>21</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J28" s="1">
         <v>5</v>
@@ -2370,7 +2407,7 @@
         <v>25</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N28" s="1"/>
     </row>
@@ -2382,7 +2419,7 @@
         <v>46</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>34</v>
@@ -2397,10 +2434,10 @@
         <v>21</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J29" s="1">
         <v>3</v>
@@ -2409,7 +2446,7 @@
         <v>28</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>34</v>
@@ -2427,22 +2464,22 @@
         <v>34</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" s="1">
         <v>5</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J30" s="1">
         <v>6</v>
@@ -2451,7 +2488,7 @@
         <v>38</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>34</v>
@@ -2467,7 +2504,7 @@
         <v>46</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>34</v>
@@ -2482,10 +2519,10 @@
         <v>21</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J31" s="1">
         <v>4</v>
@@ -2497,7 +2534,7 @@
         <v>20</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N31" s="1"/>
       <c r="Q31" s="6"/>
@@ -2513,23 +2550,23 @@
         <v>15</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H32" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="I32" s="4" t="s">
-        <v>101</v>
-      </c>
       <c r="J32" s="1">
         <v>3</v>
       </c>
@@ -2537,10 +2574,10 @@
         <v>28</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -2551,7 +2588,7 @@
         <v>46</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>15</v>
@@ -2560,25 +2597,25 @@
         <v>2</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H33" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="I33" s="4" t="s">
+      <c r="J33" s="1">
+        <v>3</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="J33" s="1">
-        <v>3</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>104</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>15</v>
@@ -2595,22 +2632,22 @@
         <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E34" s="1">
         <v>3</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J34" s="1">
         <v>2</v>
@@ -2619,10 +2656,10 @@
         <v>29</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
@@ -2633,7 +2670,7 @@
         <v>46</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>15</v>
@@ -2642,16 +2679,16 @@
         <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="J35" s="1">
         <v>4</v>
@@ -2660,10 +2697,10 @@
         <v>28</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
@@ -2677,23 +2714,23 @@
         <v>15</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" s="1">
         <v>5</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I36" s="4" t="s">
-        <v>110</v>
-      </c>
       <c r="J36" s="1">
         <v>3</v>
       </c>
@@ -2701,10 +2738,10 @@
         <v>28</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
@@ -2730,10 +2767,10 @@
         <v>16</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J37" s="1">
         <v>4</v>
@@ -2771,10 +2808,10 @@
         <v>16</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J38" s="1">
         <v>3</v>
@@ -2783,7 +2820,7 @@
         <v>28</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>14</v>
@@ -2812,10 +2849,10 @@
         <v>21</v>
       </c>
       <c r="H39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="I39" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="J39" s="1">
         <v>4</v>
@@ -2824,7 +2861,7 @@
         <v>28</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>14</v>
@@ -2853,10 +2890,10 @@
         <v>16</v>
       </c>
       <c r="H40" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="J40" s="1">
         <v>3</v>
@@ -2879,7 +2916,7 @@
         <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>15</v>
@@ -2894,19 +2931,19 @@
         <v>16</v>
       </c>
       <c r="H41" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="4" t="s">
         <v>117</v>
-      </c>
-      <c r="I41" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J41" s="1">
-        <v>3</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>118</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>15</v>
@@ -2923,13 +2960,13 @@
         <v>15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E42" s="1">
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>16</v>
@@ -2941,10 +2978,10 @@
         <v>29</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
@@ -2955,7 +2992,7 @@
         <v>13</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>15</v>
@@ -2970,10 +3007,10 @@
         <v>21</v>
       </c>
       <c r="H43" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I43" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>121</v>
       </c>
       <c r="J43" s="1">
         <v>2</v>
@@ -2982,7 +3019,7 @@
         <v>29</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>15</v>
@@ -2999,13 +3036,13 @@
         <v>15</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E44" s="1">
         <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>16</v>
@@ -3017,10 +3054,10 @@
         <v>29</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
@@ -3031,7 +3068,7 @@
         <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>15</v>
@@ -3040,16 +3077,16 @@
         <v>5</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H45" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>122</v>
-      </c>
-      <c r="I45" s="4" t="s">
-        <v>123</v>
       </c>
       <c r="J45" s="1">
         <v>2</v>
@@ -3075,7 +3112,7 @@
         <v>15</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E46" s="1">
         <v>6</v>
@@ -3087,22 +3124,22 @@
         <v>16</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I46" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J46" s="1">
+        <v>3</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="J46" s="1">
-        <v>3</v>
-      </c>
-      <c r="K46" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>125</v>
-      </c>
       <c r="M46" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
@@ -3116,13 +3153,13 @@
         <v>15</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E47" s="1">
         <v>7</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>21</v>
@@ -3134,10 +3171,10 @@
         <v>29</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M47" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
@@ -3151,7 +3188,7 @@
         <v>35</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E48" s="1">
         <v>1</v>
@@ -3163,10 +3200,10 @@
         <v>16</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J48" s="1">
         <v>3</v>
@@ -3175,10 +3212,10 @@
         <v>29</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
@@ -3189,7 +3226,7 @@
         <v>46</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>35</v>
@@ -3198,25 +3235,25 @@
         <v>2</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H49" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="J49" s="1">
+        <v>3</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="J49" s="1">
-        <v>3</v>
-      </c>
-      <c r="K49" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>130</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>35</v>
@@ -3233,22 +3270,22 @@
         <v>35</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E50" s="1">
         <v>3</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J50" s="1">
         <v>3</v>
@@ -3260,7 +3297,7 @@
         <v>25</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
@@ -3271,7 +3308,7 @@
         <v>46</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>35</v>
@@ -3280,16 +3317,16 @@
         <v>4</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J51" s="1">
         <v>6</v>
@@ -3298,10 +3335,10 @@
         <v>38</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M51" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
@@ -3315,19 +3352,19 @@
         <v>35</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E52" s="1">
         <v>5</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>37</v>
@@ -3342,7 +3379,7 @@
         <v>25</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
@@ -3353,7 +3390,7 @@
         <v>13</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
@@ -3374,7 +3411,7 @@
         <v>29</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>14</v>
@@ -3391,7 +3428,7 @@
         <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E54" s="1">
         <v>2</v>
@@ -3403,10 +3440,10 @@
         <v>16</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J54" s="1">
         <v>4</v>
@@ -3415,10 +3452,10 @@
         <v>29</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
@@ -3429,7 +3466,7 @@
         <v>13</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -3444,10 +3481,10 @@
         <v>21</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J55" s="1">
         <v>2</v>
@@ -3456,7 +3493,7 @@
         <v>29</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>14</v>
@@ -3473,22 +3510,22 @@
         <v>14</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E56" s="1">
         <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H56" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>139</v>
-      </c>
-      <c r="I56" s="4" t="s">
-        <v>140</v>
       </c>
       <c r="J56" s="1">
         <v>6</v>
@@ -3497,7 +3534,7 @@
         <v>38</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>14</v>
@@ -3511,7 +3548,7 @@
         <v>13</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
@@ -3526,10 +3563,10 @@
         <v>21</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J57" s="1">
         <v>2</v>
@@ -3567,19 +3604,19 @@
         <v>21</v>
       </c>
       <c r="H58" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J58" s="1">
+        <v>3</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="I58" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J58" s="1">
-        <v>3</v>
-      </c>
-      <c r="K58" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L58" s="4" t="s">
-        <v>144</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>15</v>
@@ -3608,10 +3645,10 @@
         <v>21</v>
       </c>
       <c r="H59" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="I59" s="4" t="s">
         <v>145</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>146</v>
       </c>
       <c r="J59" s="1">
         <v>4</v>
@@ -3620,7 +3657,7 @@
         <v>28</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>15</v>
@@ -3649,10 +3686,10 @@
         <v>16</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J60" s="1">
         <v>3</v>
@@ -3661,7 +3698,7 @@
         <v>28</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>34</v>
@@ -3690,10 +3727,10 @@
         <v>21</v>
       </c>
       <c r="H61" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>148</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>149</v>
       </c>
       <c r="J61" s="1">
         <v>3</v>
@@ -3702,7 +3739,7 @@
         <v>29</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>15</v>
@@ -3731,11 +3768,11 @@
         <v>16</v>
       </c>
       <c r="H62" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I62" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="I62" s="4" t="s">
-        <v>151</v>
-      </c>
       <c r="J62" s="1">
         <v>3</v>
       </c>
@@ -3743,7 +3780,7 @@
         <v>28</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>15</v>
@@ -3772,10 +3809,10 @@
         <v>21</v>
       </c>
       <c r="H63" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>152</v>
-      </c>
-      <c r="I63" s="4" t="s">
-        <v>153</v>
       </c>
       <c r="J63" s="1">
         <v>4</v>
@@ -3848,19 +3885,19 @@
         <v>21</v>
       </c>
       <c r="H65" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I65" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I65" s="4" t="s">
+      <c r="J65" s="1">
+        <v>3</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="J65" s="1">
-        <v>3</v>
-      </c>
-      <c r="K65" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>156</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>35</v>
@@ -3889,7 +3926,7 @@
         <v>16</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>42</v>
@@ -3901,7 +3938,7 @@
         <v>28</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>35</v>
@@ -3930,10 +3967,10 @@
         <v>21</v>
       </c>
       <c r="H67" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I67" s="4" t="s">
         <v>158</v>
-      </c>
-      <c r="I67" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="J67" s="1">
         <v>4</v>
@@ -3942,7 +3979,7 @@
         <v>43</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>35</v>
@@ -3956,25 +3993,25 @@
         <v>46</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E68" s="1">
         <v>1</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J68" s="1">
         <v>5</v>
@@ -3983,10 +4020,10 @@
         <v>28</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
@@ -3997,25 +4034,25 @@
         <v>46</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E69" s="1">
         <v>2</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G69" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J69" s="1">
         <v>3</v>
@@ -4024,10 +4061,10 @@
         <v>29</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M69" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.2">
@@ -4038,25 +4075,25 @@
         <v>46</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E70" s="1">
         <v>3</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J70" s="1">
         <v>3</v>
@@ -4068,7 +4105,7 @@
         <v>40</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.2">
@@ -4079,25 +4116,25 @@
         <v>46</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E71" s="1">
         <v>4</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H71" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I71" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="I71" s="4" t="s">
-        <v>165</v>
       </c>
       <c r="J71" s="1">
         <v>5</v>
@@ -4106,10 +4143,10 @@
         <v>28</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M71" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
@@ -4120,25 +4157,25 @@
         <v>46</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E72" s="1">
         <v>5</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H72" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I72" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="I72" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="J72" s="1">
         <v>5</v>
@@ -4147,10 +4184,10 @@
         <v>28</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
@@ -4161,16 +4198,16 @@
         <v>46</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E73" s="1">
         <v>6</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>21</v>
@@ -4182,10 +4219,10 @@
         <v>29</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M73" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
@@ -4196,25 +4233,25 @@
         <v>46</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E74" s="1">
         <v>7</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J74" s="1">
         <v>5</v>
@@ -4223,13 +4260,13 @@
         <v>28</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
@@ -4243,7 +4280,7 @@
         <v>14</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E75" s="1">
         <v>1</v>
@@ -4255,10 +4292,10 @@
         <v>21</v>
       </c>
       <c r="H75" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="I75" s="4" t="s">
         <v>171</v>
-      </c>
-      <c r="I75" s="4" t="s">
-        <v>172</v>
       </c>
       <c r="J75" s="1">
         <v>4</v>
@@ -4267,10 +4304,10 @@
         <v>28</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M75" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
@@ -4281,7 +4318,7 @@
         <v>46</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
@@ -4296,10 +4333,10 @@
         <v>16</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J76" s="1">
         <v>2</v>
@@ -4325,22 +4362,22 @@
         <v>14</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E77" s="1">
         <v>3</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J77" s="1">
         <v>3</v>
@@ -4349,10 +4386,10 @@
         <v>28</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M77" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
@@ -4363,7 +4400,7 @@
         <v>46</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>14</v>
@@ -4372,16 +4409,16 @@
         <v>4</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J78" s="1">
         <v>3</v>
@@ -4390,7 +4427,7 @@
         <v>28</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>14</v>
@@ -4407,22 +4444,22 @@
         <v>14</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E79" s="1">
         <v>5</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J79" s="1">
         <v>3</v>
@@ -4431,10 +4468,10 @@
         <v>28</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M79" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.2">
@@ -4445,7 +4482,7 @@
         <v>46</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>14</v>
@@ -4460,10 +4497,10 @@
         <v>16</v>
       </c>
       <c r="H80" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I80" s="4" t="s">
         <v>176</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>177</v>
       </c>
       <c r="J80" s="1">
         <v>5</v>
@@ -4475,7 +4512,7 @@
         <v>32</v>
       </c>
       <c r="M80" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
@@ -4486,7 +4523,7 @@
         <v>13</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>34</v>
@@ -4501,10 +4538,10 @@
         <v>16</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J81" s="1">
         <v>5</v>
@@ -4516,7 +4553,7 @@
         <v>32</v>
       </c>
       <c r="M81" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
@@ -4530,22 +4567,22 @@
         <v>34</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E82" s="1">
         <v>2</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J82" s="1">
         <v>2</v>
@@ -4554,10 +4591,10 @@
         <v>29</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
@@ -4568,7 +4605,7 @@
         <v>13</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>34</v>
@@ -4577,16 +4614,16 @@
         <v>3</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J83" s="1">
         <v>3</v>
@@ -4595,7 +4632,7 @@
         <v>28</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>34</v>
@@ -4612,7 +4649,7 @@
         <v>34</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E84" s="1">
         <v>4</v>
@@ -4624,19 +4661,19 @@
         <v>16</v>
       </c>
       <c r="H84" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I84" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="I84" s="4" t="s">
+      <c r="J84" s="1">
+        <v>3</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L84" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="J84" s="1">
-        <v>3</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L84" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>34</v>
@@ -4650,7 +4687,7 @@
         <v>13</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>34</v>
@@ -4659,7 +4696,7 @@
         <v>5</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>21</v>
@@ -4671,7 +4708,7 @@
         <v>29</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>34</v>
@@ -4688,22 +4725,22 @@
         <v>34</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E86" s="1">
         <v>6</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J86" s="1">
         <v>3</v>
@@ -4712,10 +4749,10 @@
         <v>28</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
@@ -4726,7 +4763,7 @@
         <v>13</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>34</v>
@@ -4735,16 +4772,16 @@
         <v>7</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J87" s="1">
         <v>3</v>
@@ -4753,10 +4790,10 @@
         <v>28</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M87" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
@@ -4767,25 +4804,25 @@
         <v>33</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E88" s="1">
         <v>1</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J88" s="1">
         <v>3</v>
@@ -4794,10 +4831,10 @@
         <v>43</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
@@ -4808,16 +4845,16 @@
         <v>33</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E89" s="1">
         <v>2</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>21</v>
@@ -4832,7 +4869,7 @@
         <v>45</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
@@ -4843,25 +4880,25 @@
         <v>33</v>
       </c>
       <c r="C90" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E90" s="1">
         <v>3</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J90">
         <v>4</v>
@@ -4873,7 +4910,7 @@
         <v>44</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
@@ -4884,25 +4921,25 @@
         <v>33</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E91" s="1">
         <v>4</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J91">
         <v>4</v>
@@ -4914,7 +4951,7 @@
         <v>20</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
@@ -4925,25 +4962,25 @@
         <v>33</v>
       </c>
       <c r="C92" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E92" s="1">
         <v>5</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H92" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="J92">
         <v>3</v>
@@ -4955,7 +4992,7 @@
         <v>25</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
@@ -4966,22 +5003,22 @@
         <v>33</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E93" s="1">
         <v>6</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>24</v>
@@ -4993,10 +5030,10 @@
         <v>43</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
@@ -5007,25 +5044,25 @@
         <v>33</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E94" s="1">
         <v>7</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H94" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I94" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="I94" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="J94">
         <v>3</v>
@@ -5037,7 +5074,7 @@
         <v>32</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
@@ -5048,25 +5085,25 @@
         <v>46</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E95" s="1">
         <v>1</v>
       </c>
       <c r="F95" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H95" s="4" t="s">
-        <v>196</v>
-      </c>
       <c r="I95" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J95">
         <v>5</v>
@@ -5075,10 +5112,10 @@
         <v>28</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
@@ -5089,26 +5126,26 @@
         <v>46</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E96" s="1">
         <v>2</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H96" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I96" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="I96" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="J96">
         <v>3</v>
       </c>
@@ -5116,10 +5153,10 @@
         <v>28</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M96" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
@@ -5130,25 +5167,25 @@
         <v>46</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E97" s="1">
         <v>3</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H97" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I97" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="I97" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="J97">
         <v>5</v>
@@ -5157,10 +5194,10 @@
         <v>43</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
@@ -5171,26 +5208,26 @@
         <v>46</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E98" s="1">
         <v>4</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H98" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I98" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="I98" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="J98">
         <v>3</v>
       </c>
@@ -5198,10 +5235,10 @@
         <v>28</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
@@ -5212,25 +5249,25 @@
         <v>46</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E99" s="1">
         <v>5</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J99">
         <v>3</v>
@@ -5239,10 +5276,10 @@
         <v>28</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.2">
@@ -5253,16 +5290,16 @@
         <v>46</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E100" s="1">
         <v>6</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>16</v>
@@ -5277,7 +5314,7 @@
         <v>40</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
@@ -5291,7 +5328,7 @@
         <v>47</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E101" s="1">
         <v>1</v>
@@ -5303,10 +5340,10 @@
         <v>21</v>
       </c>
       <c r="H101" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="I101" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="I101" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="J101">
         <v>6</v>
@@ -5315,7 +5352,7 @@
         <v>38</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="M101" s="4" t="s">
         <v>47</v>
@@ -5329,7 +5366,7 @@
         <v>46</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>47</v>
@@ -5350,7 +5387,7 @@
         <v>29</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M102" s="4" t="s">
         <v>47</v>
@@ -5367,7 +5404,7 @@
         <v>47</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E103" s="1">
         <v>3</v>
@@ -5379,10 +5416,10 @@
         <v>16</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J103">
         <v>3</v>
@@ -5391,10 +5428,10 @@
         <v>28</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.2">
@@ -5405,7 +5442,7 @@
         <v>46</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>47</v>
@@ -5420,10 +5457,10 @@
         <v>16</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J104">
         <v>5</v>
@@ -5432,7 +5469,7 @@
         <v>28</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M104" s="4" t="s">
         <v>47</v>
@@ -5449,22 +5486,22 @@
         <v>47</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E105" s="1">
         <v>5</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J105">
         <v>3</v>
@@ -5473,7 +5510,7 @@
         <v>28</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M105" s="4" t="s">
         <v>47</v>
@@ -5502,7 +5539,7 @@
         <v>16</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>37</v>
@@ -5514,7 +5551,7 @@
         <v>28</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M106" s="4" t="s">
         <v>15</v>
@@ -5543,10 +5580,10 @@
         <v>16</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J107">
         <v>3</v>
@@ -5555,7 +5592,7 @@
         <v>28</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M107" s="4" t="s">
         <v>15</v>
@@ -5584,10 +5621,10 @@
         <v>21</v>
       </c>
       <c r="H108" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="I108" s="4" t="s">
         <v>212</v>
-      </c>
-      <c r="I108" s="4" t="s">
-        <v>213</v>
       </c>
       <c r="J108">
         <v>3</v>
@@ -5625,10 +5662,10 @@
         <v>21</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J109">
         <v>3</v>
@@ -5637,7 +5674,7 @@
         <v>28</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M109" s="4" t="s">
         <v>15</v>
@@ -5651,7 +5688,7 @@
         <v>33</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>47</v>
@@ -5666,10 +5703,10 @@
         <v>16</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J110">
         <v>4</v>
@@ -5678,7 +5715,7 @@
         <v>28</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M110" s="4" t="s">
         <v>47</v>
@@ -5695,22 +5732,22 @@
         <v>47</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E111" s="1">
         <v>2</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J111">
         <v>4</v>
@@ -5719,10 +5756,10 @@
         <v>28</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.2">
@@ -5733,7 +5770,7 @@
         <v>33</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>47</v>
@@ -5742,17 +5779,17 @@
         <v>3</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H112" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="I112" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="I112" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="J112">
         <v>3</v>
       </c>
@@ -5760,10 +5797,10 @@
         <v>28</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.2">
@@ -5777,13 +5814,13 @@
         <v>47</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E113" s="1">
         <v>4</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>16</v>
@@ -5795,10 +5832,10 @@
         <v>29</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.2">
@@ -5809,7 +5846,7 @@
         <v>33</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>47</v>
@@ -5818,7 +5855,7 @@
         <v>5</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>21</v>
@@ -5830,7 +5867,7 @@
         <v>29</v>
       </c>
       <c r="L114" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M114" s="4" t="s">
         <v>47</v>
@@ -5847,7 +5884,7 @@
         <v>47</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E115" s="1">
         <v>6</v>
@@ -5859,10 +5896,10 @@
         <v>21</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J115">
         <v>4</v>
@@ -5871,7 +5908,7 @@
         <v>28</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M115" s="4" t="s">
         <v>47</v>
@@ -5885,7 +5922,7 @@
         <v>33</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>47</v>
@@ -5894,16 +5931,16 @@
         <v>7</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J116">
         <v>6</v>
@@ -5912,10 +5949,10 @@
         <v>38</v>
       </c>
       <c r="L116" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="M116" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.2">
@@ -5929,7 +5966,7 @@
         <v>34</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E117" s="1">
         <v>1</v>
@@ -5941,10 +5978,10 @@
         <v>16</v>
       </c>
       <c r="H117" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="I117" s="4" t="s">
         <v>223</v>
-      </c>
-      <c r="I117" s="4" t="s">
-        <v>224</v>
       </c>
       <c r="J117">
         <v>2</v>
@@ -5953,7 +5990,7 @@
         <v>29</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M117" s="4" t="s">
         <v>34</v>
@@ -5967,7 +6004,7 @@
         <v>13</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>34</v>
@@ -5988,7 +6025,7 @@
         <v>29</v>
       </c>
       <c r="L118" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M118" s="4" t="s">
         <v>34</v>
@@ -6005,7 +6042,7 @@
         <v>34</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E119" s="1">
         <v>3</v>
@@ -6017,25 +6054,25 @@
         <v>16</v>
       </c>
       <c r="H119" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J119">
+        <v>3</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M119" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N119" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="I119" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="J119">
-        <v>3</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L119" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M119" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="N119" s="4" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.2">
@@ -6046,7 +6083,7 @@
         <v>13</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>34</v>
@@ -6055,7 +6092,7 @@
         <v>4</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>16</v>
@@ -6067,7 +6104,7 @@
         <v>29</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M120" s="4" t="s">
         <v>34</v>
@@ -6084,7 +6121,7 @@
         <v>34</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E121" s="1">
         <v>5</v>
@@ -6096,10 +6133,10 @@
         <v>16</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -6108,7 +6145,7 @@
         <v>28</v>
       </c>
       <c r="L121" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M121" s="4" t="s">
         <v>34</v>
@@ -6122,7 +6159,7 @@
         <v>46</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>34</v>
@@ -6137,10 +6174,10 @@
         <v>16</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J122">
         <v>3</v>
@@ -6149,7 +6186,7 @@
         <v>28</v>
       </c>
       <c r="L122" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M122" s="4" t="s">
         <v>34</v>
@@ -6166,7 +6203,7 @@
         <v>34</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E123" s="1">
         <v>2</v>
@@ -6178,10 +6215,10 @@
         <v>21</v>
       </c>
       <c r="H123" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="I123" s="4" t="s">
         <v>228</v>
-      </c>
-      <c r="I123" s="4" t="s">
-        <v>229</v>
       </c>
       <c r="J123">
         <v>4</v>
@@ -6204,7 +6241,7 @@
         <v>46</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>34</v>
@@ -6219,10 +6256,10 @@
         <v>16</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J124">
         <v>5</v>
@@ -6231,10 +6268,10 @@
         <v>28</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="M124" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.2">
@@ -6248,7 +6285,7 @@
         <v>34</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E125" s="1">
         <v>4</v>
@@ -6260,10 +6297,10 @@
         <v>16</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J125">
         <v>3</v>
@@ -6275,7 +6312,7 @@
         <v>25</v>
       </c>
       <c r="M125" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.2">
@@ -6286,7 +6323,7 @@
         <v>46</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>34</v>
@@ -6301,10 +6338,10 @@
         <v>16</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J126">
         <v>3</v>
@@ -6313,7 +6350,7 @@
         <v>28</v>
       </c>
       <c r="L126" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M126" s="4" t="s">
         <v>34</v>
@@ -6330,7 +6367,7 @@
         <v>34</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E127" s="1">
         <v>6</v>
@@ -6342,10 +6379,10 @@
         <v>16</v>
       </c>
       <c r="H127" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="I127" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="I127" s="4" t="s">
-        <v>234</v>
       </c>
       <c r="J127">
         <v>5</v>
@@ -6371,22 +6408,22 @@
         <v>14</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E128" s="1">
         <v>1</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J128">
         <v>4</v>
@@ -6395,7 +6432,7 @@
         <v>28</v>
       </c>
       <c r="L128" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M128" s="4" t="s">
         <v>14</v>
@@ -6409,7 +6446,7 @@
         <v>46</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>14</v>
@@ -6424,10 +6461,10 @@
         <v>16</v>
       </c>
       <c r="H129" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I129" s="4" t="s">
         <v>235</v>
-      </c>
-      <c r="I129" s="4" t="s">
-        <v>236</v>
       </c>
       <c r="J129">
         <v>5</v>
@@ -6436,7 +6473,7 @@
         <v>28</v>
       </c>
       <c r="L129" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M129" s="4" t="s">
         <v>14</v>
@@ -6453,22 +6490,22 @@
         <v>14</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E130" s="1">
         <v>3</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J130">
         <v>6</v>
@@ -6477,7 +6514,7 @@
         <v>38</v>
       </c>
       <c r="L130" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M130" s="4" t="s">
         <v>14</v>
@@ -6491,7 +6528,7 @@
         <v>46</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D131" s="1" t="s">
         <v>14</v>
@@ -6506,10 +6543,10 @@
         <v>16</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J131">
         <v>2</v>
@@ -6518,7 +6555,7 @@
         <v>28</v>
       </c>
       <c r="L131" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M131" s="4" t="s">
         <v>14</v>
@@ -6532,7 +6569,7 @@
         <v>13</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>35</v>
@@ -6541,16 +6578,16 @@
         <v>1</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J132">
         <v>4</v>
@@ -6559,10 +6596,10 @@
         <v>43</v>
       </c>
       <c r="L132" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M132" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -6576,7 +6613,7 @@
         <v>35</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E133" s="1">
         <v>2</v>
@@ -6594,10 +6631,10 @@
         <v>29</v>
       </c>
       <c r="L133" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M133" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.2">
@@ -6608,7 +6645,7 @@
         <v>13</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>35</v>
@@ -6629,7 +6666,7 @@
         <v>29</v>
       </c>
       <c r="L134" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M134" s="4" t="s">
         <v>35</v>
@@ -6646,7 +6683,7 @@
         <v>35</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E135" s="1">
         <v>4</v>
@@ -6658,10 +6695,10 @@
         <v>21</v>
       </c>
       <c r="H135" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="I135" s="4" t="s">
         <v>242</v>
-      </c>
-      <c r="I135" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="J135">
         <v>4</v>
@@ -6670,10 +6707,10 @@
         <v>28</v>
       </c>
       <c r="L135" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M135" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.2">
@@ -6684,7 +6721,7 @@
         <v>13</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>35</v>
@@ -6693,16 +6730,16 @@
         <v>5</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J136">
         <v>3</v>
@@ -6711,10 +6748,10 @@
         <v>28</v>
       </c>
       <c r="L136" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M136" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.2">
@@ -6740,10 +6777,10 @@
         <v>21</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="J137">
         <v>5</v>
@@ -6752,7 +6789,7 @@
         <v>43</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M137" s="4" t="s">
         <v>14</v>
@@ -6787,7 +6824,7 @@
         <v>29</v>
       </c>
       <c r="L138" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M138" s="4" t="s">
         <v>14</v>
@@ -6816,10 +6853,10 @@
         <v>16</v>
       </c>
       <c r="H139" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I139" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="I139" s="4" t="s">
-        <v>248</v>
       </c>
       <c r="J139">
         <v>5</v>
@@ -6828,7 +6865,7 @@
         <v>43</v>
       </c>
       <c r="L139" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M139" s="4" t="s">
         <v>35</v>
@@ -6857,10 +6894,10 @@
         <v>21</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J140">
         <v>4</v>
@@ -6869,7 +6906,7 @@
         <v>43</v>
       </c>
       <c r="L140" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M140" s="4" t="s">
         <v>35</v>
@@ -6898,10 +6935,10 @@
         <v>21</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J141">
         <v>3</v>
@@ -6910,7 +6947,7 @@
         <v>43</v>
       </c>
       <c r="L141" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M141" s="4" t="s">
         <v>35</v>
@@ -6939,10 +6976,10 @@
         <v>16</v>
       </c>
       <c r="H142" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="I142" s="4" t="s">
         <v>251</v>
-      </c>
-      <c r="I142" s="4" t="s">
-        <v>252</v>
       </c>
       <c r="J142">
         <v>3</v>
@@ -6951,7 +6988,7 @@
         <v>43</v>
       </c>
       <c r="L142" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M142" s="4" t="s">
         <v>14</v>
@@ -6980,10 +7017,10 @@
         <v>21</v>
       </c>
       <c r="H143" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I143" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="I143" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="J143">
         <v>4</v>
@@ -6992,7 +7029,7 @@
         <v>43</v>
       </c>
       <c r="L143" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M143" s="4" t="s">
         <v>14</v>
@@ -7009,19 +7046,19 @@
         <v>15</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E144" s="1">
         <v>1</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G144" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I144" s="4" t="s">
         <v>42</v>
@@ -7033,7 +7070,7 @@
         <v>43</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M144" s="4" t="s">
         <v>15</v>
@@ -7047,7 +7084,7 @@
         <v>33</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>15</v>
@@ -7056,7 +7093,7 @@
         <v>2</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G145" s="1" t="s">
         <v>21</v>
@@ -7085,22 +7122,22 @@
         <v>15</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E146" s="1">
         <v>3</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G146" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J146">
         <v>4</v>
@@ -7123,7 +7160,7 @@
         <v>33</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>15</v>
@@ -7132,16 +7169,16 @@
         <v>4</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J147">
         <v>3</v>
@@ -7150,10 +7187,10 @@
         <v>43</v>
       </c>
       <c r="L147" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.2">
@@ -7167,7 +7204,7 @@
         <v>15</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E148" s="1">
         <v>5</v>
@@ -7179,10 +7216,10 @@
         <v>21</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J148">
         <v>4</v>
@@ -7208,22 +7245,22 @@
         <v>14</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E149" s="1">
         <v>1</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G149" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J149">
         <v>6</v>
@@ -7232,7 +7269,7 @@
         <v>38</v>
       </c>
       <c r="L149" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M149" s="4" t="s">
         <v>14</v>
@@ -7246,7 +7283,7 @@
         <v>46</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D150" s="1" t="s">
         <v>14</v>
@@ -7255,16 +7292,16 @@
         <v>2</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G150" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J150">
         <v>3</v>
@@ -7273,7 +7310,7 @@
         <v>28</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M150" s="4" t="s">
         <v>14</v>
@@ -7290,7 +7327,7 @@
         <v>14</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E151" s="1">
         <v>3</v>
@@ -7302,10 +7339,10 @@
         <v>16</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J151">
         <v>4</v>
@@ -7314,10 +7351,10 @@
         <v>43</v>
       </c>
       <c r="L151" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M151" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.2">
@@ -7328,7 +7365,7 @@
         <v>46</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D152" s="1" t="s">
         <v>14</v>
@@ -7337,28 +7374,28 @@
         <v>4</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G152" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H152" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="J152">
+        <v>3</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L152" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="I152" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="J152">
-        <v>3</v>
-      </c>
-      <c r="K152" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L152" s="4" t="s">
-        <v>261</v>
-      </c>
       <c r="M152" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.2">
@@ -7372,22 +7409,22 @@
         <v>14</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E153" s="1">
         <v>5</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J153">
         <v>4</v>
@@ -7396,10 +7433,10 @@
         <v>28</v>
       </c>
       <c r="L153" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M153" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.2">
@@ -7410,7 +7447,7 @@
         <v>46</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D154" s="1" t="s">
         <v>14</v>
@@ -7419,16 +7456,16 @@
         <v>6</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G154" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J154">
         <v>4</v>
@@ -7437,7 +7474,7 @@
         <v>28</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M154" s="4" t="s">
         <v>14</v>
@@ -7451,7 +7488,7 @@
         <v>46</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D155" s="1" t="s">
         <v>14</v>
@@ -7460,13 +7497,13 @@
         <v>7</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G155" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I155" s="4" t="s">
         <v>24</v>
@@ -7478,10 +7515,10 @@
         <v>38</v>
       </c>
       <c r="L155" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M155" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.2">
@@ -7495,22 +7532,22 @@
         <v>34</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E156" s="1">
         <v>1</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G156" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J156">
         <v>5</v>
@@ -7519,7 +7556,7 @@
         <v>43</v>
       </c>
       <c r="L156" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M156" s="4" t="s">
         <v>34</v>
@@ -7533,7 +7570,7 @@
         <v>33</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>34</v>
@@ -7554,7 +7591,7 @@
         <v>29</v>
       </c>
       <c r="L157" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M157" s="4" t="s">
         <v>34</v>
@@ -7571,22 +7608,22 @@
         <v>34</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E158" s="1">
         <v>3</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G158" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J158">
         <v>4</v>
@@ -7595,10 +7632,10 @@
         <v>43</v>
       </c>
       <c r="L158" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M158" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.2">
@@ -7609,7 +7646,7 @@
         <v>33</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D159" s="1" t="s">
         <v>34</v>
@@ -7618,16 +7655,16 @@
         <v>4</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G159" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J159">
         <v>3</v>
@@ -7636,7 +7673,7 @@
         <v>29</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M159" s="4" t="s">
         <v>34</v>
@@ -7653,7 +7690,7 @@
         <v>34</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E160" s="1">
         <v>5</v>
@@ -7665,10 +7702,10 @@
         <v>16</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J160">
         <v>3</v>
@@ -7677,10 +7714,10 @@
         <v>43</v>
       </c>
       <c r="L160" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M160" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.2">
@@ -7691,7 +7728,7 @@
         <v>33</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>34</v>
@@ -7700,16 +7737,16 @@
         <v>6</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G161" s="1" t="s">
         <v>16</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J161">
         <v>3</v>
@@ -7718,10 +7755,10 @@
         <v>43</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M161" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.2">
@@ -7732,7 +7769,7 @@
         <v>33</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D162" s="1" t="s">
         <v>34</v>
@@ -7747,10 +7784,10 @@
         <v>16</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J162">
         <v>3</v>
@@ -7759,7 +7796,7 @@
         <v>43</v>
       </c>
       <c r="L162" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="M162" s="4" t="s">
         <v>34</v>
@@ -7773,7 +7810,7 @@
         <v>33</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D163" s="1" t="s">
         <v>35</v>
@@ -7782,16 +7819,16 @@
         <v>1</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>21</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J163">
         <v>2</v>
@@ -7800,7 +7837,7 @@
         <v>29</v>
       </c>
       <c r="L163" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M163" s="4" t="s">
         <v>35</v>
@@ -7817,7 +7854,7 @@
         <v>35</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E164" s="1">
         <v>2</v>
@@ -7829,10 +7866,10 @@
         <v>16</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J164">
         <v>4</v>
@@ -7841,7 +7878,7 @@
         <v>43</v>
       </c>
       <c r="L164" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M164" s="4" t="s">
         <v>35</v>
@@ -7855,7 +7892,7 @@
         <v>33</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D165" s="1" t="s">
         <v>35</v>
@@ -7870,10 +7907,10 @@
         <v>16</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J165">
         <v>3</v>
@@ -7882,7 +7919,7 @@
         <v>28</v>
       </c>
       <c r="L165" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M165" s="4" t="s">
         <v>35</v>
@@ -7899,7 +7936,7 @@
         <v>35</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E166" s="1">
         <v>4</v>
@@ -7914,7 +7951,7 @@
         <v>41</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J166">
         <v>4</v>
@@ -7930,18 +7967,772 @@
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A167" s="2"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
-      <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
+      <c r="A167" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E167" s="1">
+        <v>1</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H167" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="I167" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="J167">
+        <v>3</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L167" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M167" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A168" s="2"/>
-      <c r="B168" s="1"/>
-      <c r="C168" s="1"/>
-      <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
+      <c r="A168" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E168" s="1">
+        <v>2</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H168" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="I168" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J168">
+        <v>4</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L168" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M168" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E169" s="1">
+        <v>3</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H169" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="I169" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="J169">
+        <v>4</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L169" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M169" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E170" s="1">
+        <v>4</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H170" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I170" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J170">
+        <v>4</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L170" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M170" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E171" s="1">
+        <v>1</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H171" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I171" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J171">
+        <v>3</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L171" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M171" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E172" s="1">
+        <v>2</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H172" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="I172" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J172">
+        <v>4</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L172" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="M172" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E173" s="1">
+        <v>3</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H173" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="I173" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="J173">
+        <v>3</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L173" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="M173" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E174" s="1">
+        <v>4</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H174" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I174" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J174">
+        <v>2</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L174" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M174" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="E175" s="1">
+        <v>5</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H175" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="I175" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J175">
+        <v>4</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L175" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M175" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E176" s="1">
+        <v>6</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L176" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M176" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" s="1">
+        <v>1</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L177" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="M177" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E178" s="1">
+        <v>2</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H178" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I178" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J178">
+        <v>3</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L178" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="M178" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" s="1">
+        <v>3</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H179" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="I179" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="J179">
+        <v>3</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L179" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="M179" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E180" s="1">
+        <v>4</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H180" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="I180" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="J180">
+        <v>3</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L180" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M180" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E181" s="1">
+        <v>1</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H181" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J181">
+        <v>3</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L181" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M181" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" s="1">
+        <v>2</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L182" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="M182" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D183" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E183" s="1">
+        <v>3</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H183" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I183" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J183">
+        <v>3</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L183" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="M183" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D184" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" s="1">
+        <v>4</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H184" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="I184" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="J184">
+        <v>5</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L184" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="M184" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>45892</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D185" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E185" s="1">
+        <v>5</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H185" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I185" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J185">
+        <v>3</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L185" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="M185" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A186" s="2"/>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1"/>
+      <c r="D186" s="1"/>
+      <c r="E186" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
